--- a/results/I3_N5_M2_T30_C150_DepLowerLeft_s0_mean_res.xlsx
+++ b/results/I3_N5_M2_T30_C150_DepLowerLeft_s0_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1855.011978302786</v>
+        <v>133.1509503212594</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2969999313354492</v>
+        <v>0.07899999618530273</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45.21807002398744</v>
+        <v>41.15095032125945</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26.12530602949823</v>
+        <v>5.42779881720021</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.78921430846006</v>
+        <v>5.42779881720021</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1224.169999999837</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>596.96</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,23 +584,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -645,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -656,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -667,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -678,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -689,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -700,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -711,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -780,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -791,7 +780,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -802,7 +791,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -874,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20.63858450874039</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +871,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.09486359553444</v>
+        <v>10.90513640446556</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +879,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.187002988238969</v>
+        <v>24.35124120223172</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +887,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.564396518977894</v>
+        <v>22.73386173754266</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +895,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>16.8627005062848</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -936,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -968,7 +957,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>7</v>
@@ -977,34 +966,6 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1063,7 +1024,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>156.2870000000017</v>
+        <v>68.59999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -1074,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>266.1299999999819</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="5">
@@ -1085,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>76.33399999999935</v>
+        <v>121.4</v>
       </c>
     </row>
     <row r="6">
@@ -1096,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>156.7779999999813</v>
+        <v>151.6</v>
       </c>
     </row>
     <row r="7">
@@ -1107,7 +1068,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>81.70599999999979</v>
+        <v>106.2</v>
       </c>
     </row>
     <row r="8">
@@ -1118,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>266.1299999999819</v>
+        <v>121.4</v>
       </c>
     </row>
     <row r="9">
@@ -1129,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>156.2870000000017</v>
+        <v>151.6</v>
       </c>
     </row>
   </sheetData>
@@ -1176,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>116.1299999999819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1187,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>6.28700000000174</v>
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>
@@ -1245,7 +1206,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>10.252</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="4">
@@ -1256,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>20.667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1267,7 +1228,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>22.819</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1278,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>5.958</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1292,7 +1253,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1319,34 +1280,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
         <v>1</v>
       </c>
     </row>
